--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3DP12-Vishal\Untitled Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D4CA4A-AD56-4FC9-A6BB-531B098A75CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF2C0BF-1F90-452F-9309-3216FCE423F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{F3702399-FEC2-49C7-9D12-C81F55E64937}"/>
+    <workbookView xWindow="-8400" yWindow="3996" windowWidth="17280" windowHeight="9108" xr2:uid="{F3702399-FEC2-49C7-9D12-C81F55E64937}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Carat</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Symmetry</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
 </sst>
 </file>
@@ -422,12 +425,12 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,10 +452,12 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.9</v>
       </c>
@@ -473,6 +478,9 @@
       </c>
       <c r="G2">
         <v>3</v>
+      </c>
+      <c r="H2">
+        <v>3100</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3DP12-Vishal\Untitled Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF2C0BF-1F90-452F-9309-3216FCE423F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415548AD-07A1-4851-973B-7E4EC091CB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-8400" yWindow="3996" windowWidth="17280" windowHeight="9108" xr2:uid="{F3702399-FEC2-49C7-9D12-C81F55E64937}"/>
   </bookViews>
@@ -38,25 +38,25 @@
     <t>Carat</t>
   </si>
   <si>
-    <t>Colour</t>
-  </si>
-  <si>
-    <t>Clarity</t>
-  </si>
-  <si>
-    <t>Cut</t>
-  </si>
-  <si>
-    <t>Certification</t>
-  </si>
-  <si>
-    <t>Polish</t>
-  </si>
-  <si>
-    <t>Symmetry</t>
-  </si>
-  <si>
     <t>price</t>
+  </si>
+  <si>
+    <t>categorical_color</t>
+  </si>
+  <si>
+    <t>categorical_cut</t>
+  </si>
+  <si>
+    <t>categorical_polish</t>
+  </si>
+  <si>
+    <t>categorical_symmetry</t>
+  </si>
+  <si>
+    <t>categorical_certification</t>
+  </si>
+  <si>
+    <t>categorical_clarity</t>
   </si>
 </sst>
 </file>
@@ -78,10 +78,10 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,7 +107,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +427,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,26 +436,26 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I1" s="1"/>
     </row>
@@ -485,5 +487,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>